--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Jag2-Notch4.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Jag2-Notch4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.0326431864256</v>
+        <v>15.41482866666667</v>
       </c>
       <c r="H2">
-        <v>14.0326431864256</v>
+        <v>46.244486</v>
       </c>
       <c r="I2">
-        <v>0.6317436461445349</v>
+        <v>0.6468072013652575</v>
       </c>
       <c r="J2">
-        <v>0.6317436461445349</v>
+        <v>0.6468072013652575</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.9110121915341</v>
+        <v>36.01682133333333</v>
       </c>
       <c r="N2">
-        <v>30.9110121915341</v>
+        <v>108.050464</v>
       </c>
       <c r="O2">
-        <v>0.8971396701936101</v>
+        <v>0.888210824651586</v>
       </c>
       <c r="P2">
-        <v>0.8971396701936101</v>
+        <v>0.8882108246515859</v>
       </c>
       <c r="Q2">
-        <v>433.7632046150496</v>
+        <v>555.1931299712783</v>
       </c>
       <c r="R2">
-        <v>433.7632046150496</v>
+        <v>4996.738169741504</v>
       </c>
       <c r="S2">
-        <v>0.5667622863490168</v>
+        <v>0.5745011577152198</v>
       </c>
       <c r="T2">
-        <v>0.5667622863490168</v>
+        <v>0.5745011577152197</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.0326431864256</v>
+        <v>15.41482866666667</v>
       </c>
       <c r="H3">
-        <v>14.0326431864256</v>
+        <v>46.244486</v>
       </c>
       <c r="I3">
-        <v>0.6317436461445349</v>
+        <v>0.6468072013652575</v>
       </c>
       <c r="J3">
-        <v>0.6317436461445349</v>
+        <v>0.6468072013652575</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.647754508802609</v>
+        <v>0.6555886666666667</v>
       </c>
       <c r="N3">
-        <v>0.647754508802609</v>
+        <v>1.966766</v>
       </c>
       <c r="O3">
-        <v>0.01879997532247603</v>
+        <v>0.01616747199490695</v>
       </c>
       <c r="P3">
-        <v>0.01879997532247603</v>
+        <v>0.01616747199490695</v>
       </c>
       <c r="Q3">
-        <v>9.089707894425393</v>
+        <v>10.10578697247511</v>
       </c>
       <c r="R3">
-        <v>9.089707894425393</v>
+        <v>90.95208275227601</v>
       </c>
       <c r="S3">
-        <v>0.01187676495764828</v>
+        <v>0.01045723731417694</v>
       </c>
       <c r="T3">
-        <v>0.01187676495764828</v>
+        <v>0.01045723731417694</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.0326431864256</v>
+        <v>15.41482866666667</v>
       </c>
       <c r="H4">
-        <v>14.0326431864256</v>
+        <v>46.244486</v>
       </c>
       <c r="I4">
-        <v>0.6317436461445349</v>
+        <v>0.6468072013652575</v>
       </c>
       <c r="J4">
-        <v>0.6317436461445349</v>
+        <v>0.6468072013652575</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.04547765709317</v>
+        <v>0.7454163333333333</v>
       </c>
       <c r="N4">
-        <v>1.04547765709317</v>
+        <v>2.236249</v>
       </c>
       <c r="O4">
-        <v>0.03034321473097013</v>
+        <v>0.01838271206698645</v>
       </c>
       <c r="P4">
-        <v>0.03034321473097013</v>
+        <v>0.01838271206698644</v>
       </c>
       <c r="Q4">
-        <v>14.67081492136867</v>
+        <v>11.49046506366822</v>
       </c>
       <c r="R4">
-        <v>14.67081492136867</v>
+        <v>103.414185573014</v>
       </c>
       <c r="S4">
-        <v>0.01916913310988963</v>
+        <v>0.01189007054555085</v>
       </c>
       <c r="T4">
-        <v>0.01916913310988963</v>
+        <v>0.01189007054555085</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.0326431864256</v>
+        <v>15.41482866666667</v>
       </c>
       <c r="H5">
-        <v>14.0326431864256</v>
+        <v>46.244486</v>
       </c>
       <c r="I5">
-        <v>0.6317436461445349</v>
+        <v>0.6468072013652575</v>
       </c>
       <c r="J5">
-        <v>0.6317436461445349</v>
+        <v>0.6468072013652575</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.97320244330446</v>
+        <v>1.125220666666667</v>
       </c>
       <c r="N5">
-        <v>0.97320244330446</v>
+        <v>3.375662</v>
       </c>
       <c r="O5">
-        <v>0.02824554930805219</v>
+        <v>0.02774906666541499</v>
       </c>
       <c r="P5">
-        <v>0.02824554930805219</v>
+        <v>0.02774906666541499</v>
       </c>
       <c r="Q5">
-        <v>13.65660263504908</v>
+        <v>17.34508378885911</v>
       </c>
       <c r="R5">
-        <v>13.65660263504908</v>
+        <v>156.105754099732</v>
       </c>
       <c r="S5">
-        <v>0.01784394630722414</v>
+        <v>0.01794829615035503</v>
       </c>
       <c r="T5">
-        <v>0.01784394630722414</v>
+        <v>0.01794829615035503</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.0326431864256</v>
+        <v>15.41482866666667</v>
       </c>
       <c r="H6">
-        <v>14.0326431864256</v>
+        <v>46.244486</v>
       </c>
       <c r="I6">
-        <v>0.6317436461445349</v>
+        <v>0.6468072013652575</v>
       </c>
       <c r="J6">
-        <v>0.6317436461445349</v>
+        <v>0.6468072013652575</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.877625490142341</v>
+        <v>0.9795256666666666</v>
       </c>
       <c r="N6">
-        <v>0.877625490142341</v>
+        <v>2.938577</v>
       </c>
       <c r="O6">
-        <v>0.02547159044489152</v>
+        <v>0.02415608229569642</v>
       </c>
       <c r="P6">
-        <v>0.02547159044489152</v>
+        <v>0.02415608229569642</v>
       </c>
       <c r="Q6">
-        <v>12.31540535447935</v>
+        <v>15.09922032626911</v>
       </c>
       <c r="R6">
-        <v>12.31540535447935</v>
+        <v>135.892982936422</v>
       </c>
       <c r="S6">
-        <v>0.01609151542075607</v>
+        <v>0.01562432798562825</v>
       </c>
       <c r="T6">
-        <v>0.01609151542075607</v>
+        <v>0.01562432798562825</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.08721610360565241</v>
+        <v>15.41482866666667</v>
       </c>
       <c r="H7">
-        <v>0.08721610360565241</v>
+        <v>46.244486</v>
       </c>
       <c r="I7">
-        <v>0.003926432003035132</v>
+        <v>0.6468072013652575</v>
       </c>
       <c r="J7">
-        <v>0.003926432003035132</v>
+        <v>0.6468072013652575</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>30.9110121915341</v>
+        <v>1.027283666666667</v>
       </c>
       <c r="N7">
-        <v>30.9110121915341</v>
+        <v>3.081851</v>
       </c>
       <c r="O7">
-        <v>0.8971396701936101</v>
+        <v>0.02533384232540931</v>
       </c>
       <c r="P7">
-        <v>0.8971396701936101</v>
+        <v>0.02533384232540931</v>
       </c>
       <c r="Q7">
-        <v>2.695938041852422</v>
+        <v>15.83540171373178</v>
       </c>
       <c r="R7">
-        <v>2.695938041852422</v>
+        <v>142.518615423586</v>
       </c>
       <c r="S7">
-        <v>0.003522557912240574</v>
+        <v>0.0163861116543267</v>
       </c>
       <c r="T7">
-        <v>0.003522557912240574</v>
+        <v>0.0163861116543267</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.08721610360565241</v>
+        <v>0.1384146666666667</v>
       </c>
       <c r="H8">
-        <v>0.08721610360565241</v>
+        <v>0.415244</v>
       </c>
       <c r="I8">
-        <v>0.003926432003035132</v>
+        <v>0.005807888307456049</v>
       </c>
       <c r="J8">
-        <v>0.003926432003035132</v>
+        <v>0.00580788830745605</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.647754508802609</v>
+        <v>36.01682133333333</v>
       </c>
       <c r="N8">
-        <v>0.647754508802609</v>
+        <v>108.050464</v>
       </c>
       <c r="O8">
-        <v>0.01879997532247603</v>
+        <v>0.888210824651586</v>
       </c>
       <c r="P8">
-        <v>0.01879997532247603</v>
+        <v>0.8882108246515859</v>
       </c>
       <c r="Q8">
-        <v>0.05649462435075683</v>
+        <v>4.985256319246222</v>
       </c>
       <c r="R8">
-        <v>0.05649462435075683</v>
+        <v>44.86730687321599</v>
       </c>
       <c r="S8">
-        <v>7.381682476244058E-05</v>
+        <v>0.005158629263049841</v>
       </c>
       <c r="T8">
-        <v>7.381682476244058E-05</v>
+        <v>0.005158629263049841</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.08721610360565241</v>
+        <v>0.1384146666666667</v>
       </c>
       <c r="H9">
-        <v>0.08721610360565241</v>
+        <v>0.415244</v>
       </c>
       <c r="I9">
-        <v>0.003926432003035132</v>
+        <v>0.005807888307456049</v>
       </c>
       <c r="J9">
-        <v>0.003926432003035132</v>
+        <v>0.00580788830745605</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.04547765709317</v>
+        <v>0.6555886666666667</v>
       </c>
       <c r="N9">
-        <v>1.04547765709317</v>
+        <v>1.966766</v>
       </c>
       <c r="O9">
-        <v>0.03034321473097013</v>
+        <v>0.01616747199490695</v>
       </c>
       <c r="P9">
-        <v>0.03034321473097013</v>
+        <v>0.01616747199490695</v>
       </c>
       <c r="Q9">
-        <v>0.09118248765843266</v>
+        <v>0.09074308676711111</v>
       </c>
       <c r="R9">
-        <v>0.09118248765843266</v>
+        <v>0.8166877809040001</v>
       </c>
       <c r="S9">
-        <v>0.0001191405693946482</v>
+        <v>9.389887156034318E-05</v>
       </c>
       <c r="T9">
-        <v>0.0001191405693946482</v>
+        <v>9.38988715603432E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.08721610360565241</v>
+        <v>0.1384146666666667</v>
       </c>
       <c r="H10">
-        <v>0.08721610360565241</v>
+        <v>0.415244</v>
       </c>
       <c r="I10">
-        <v>0.003926432003035132</v>
+        <v>0.005807888307456049</v>
       </c>
       <c r="J10">
-        <v>0.003926432003035132</v>
+        <v>0.00580788830745605</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.97320244330446</v>
+        <v>0.7454163333333333</v>
       </c>
       <c r="N10">
-        <v>0.97320244330446</v>
+        <v>2.236249</v>
       </c>
       <c r="O10">
-        <v>0.02824554930805219</v>
+        <v>0.01838271206698645</v>
       </c>
       <c r="P10">
-        <v>0.02824554930805219</v>
+        <v>0.01838271206698644</v>
       </c>
       <c r="Q10">
-        <v>0.08487892512451585</v>
+        <v>0.1031765533062222</v>
       </c>
       <c r="R10">
-        <v>0.08487892512451585</v>
+        <v>0.928588979756</v>
       </c>
       <c r="S10">
-        <v>0.000110904228746443</v>
+        <v>0.0001067647384731818</v>
       </c>
       <c r="T10">
-        <v>0.000110904228746443</v>
+        <v>0.0001067647384731818</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.08721610360565241</v>
+        <v>0.1384146666666667</v>
       </c>
       <c r="H11">
-        <v>0.08721610360565241</v>
+        <v>0.415244</v>
       </c>
       <c r="I11">
-        <v>0.003926432003035132</v>
+        <v>0.005807888307456049</v>
       </c>
       <c r="J11">
-        <v>0.003926432003035132</v>
+        <v>0.00580788830745605</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.877625490142341</v>
+        <v>1.125220666666667</v>
       </c>
       <c r="N11">
-        <v>0.877625490142341</v>
+        <v>3.375662</v>
       </c>
       <c r="O11">
-        <v>0.02547159044489152</v>
+        <v>0.02774906666541499</v>
       </c>
       <c r="P11">
-        <v>0.02547159044489152</v>
+        <v>0.02774906666541499</v>
       </c>
       <c r="Q11">
-        <v>0.07654307567521589</v>
+        <v>0.1557470435031111</v>
       </c>
       <c r="R11">
-        <v>0.07654307567521589</v>
+        <v>1.401723391528</v>
       </c>
       <c r="S11">
-        <v>0.0001000124678910259</v>
+        <v>0.0001611634798288821</v>
       </c>
       <c r="T11">
-        <v>0.0001000124678910259</v>
+        <v>0.0001611634798288821</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.60493245432888</v>
+        <v>0.1384146666666667</v>
       </c>
       <c r="H12">
-        <v>1.60493245432888</v>
+        <v>0.415244</v>
       </c>
       <c r="I12">
-        <v>0.07225337857191581</v>
+        <v>0.005807888307456049</v>
       </c>
       <c r="J12">
-        <v>0.07225337857191581</v>
+        <v>0.00580788830745605</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.9110121915341</v>
+        <v>0.9795256666666666</v>
       </c>
       <c r="N12">
-        <v>30.9110121915341</v>
+        <v>2.938577</v>
       </c>
       <c r="O12">
-        <v>0.8971396701936101</v>
+        <v>0.02415608229569642</v>
       </c>
       <c r="P12">
-        <v>0.8971396701936101</v>
+        <v>0.02415608229569642</v>
       </c>
       <c r="Q12">
-        <v>49.61008666234876</v>
+        <v>0.1355807186431111</v>
       </c>
       <c r="R12">
-        <v>49.61008666234876</v>
+        <v>1.220226467788</v>
       </c>
       <c r="S12">
-        <v>0.0648213722223826</v>
+        <v>0.0001402958279191213</v>
       </c>
       <c r="T12">
-        <v>0.0648213722223826</v>
+        <v>0.0001402958279191213</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.60493245432888</v>
+        <v>0.1384146666666667</v>
       </c>
       <c r="H13">
-        <v>1.60493245432888</v>
+        <v>0.415244</v>
       </c>
       <c r="I13">
-        <v>0.07225337857191581</v>
+        <v>0.005807888307456049</v>
       </c>
       <c r="J13">
-        <v>0.07225337857191581</v>
+        <v>0.00580788830745605</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.647754508802609</v>
+        <v>1.027283666666667</v>
       </c>
       <c r="N13">
-        <v>0.647754508802609</v>
+        <v>3.081851</v>
       </c>
       <c r="O13">
-        <v>0.01879997532247603</v>
+        <v>0.02533384232540931</v>
       </c>
       <c r="P13">
-        <v>0.01879997532247603</v>
+        <v>0.02533384232540931</v>
       </c>
       <c r="Q13">
-        <v>1.039602233615169</v>
+        <v>0.1421911262937778</v>
       </c>
       <c r="R13">
-        <v>1.039602233615169</v>
+        <v>1.279720136644</v>
       </c>
       <c r="S13">
-        <v>0.001358361734117535</v>
+        <v>0.0001471361266246799</v>
       </c>
       <c r="T13">
-        <v>0.001358361734117535</v>
+        <v>0.0001471361266246799</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.60493245432888</v>
+        <v>1.618736666666667</v>
       </c>
       <c r="H14">
-        <v>1.60493245432888</v>
+        <v>4.85621</v>
       </c>
       <c r="I14">
-        <v>0.07225337857191581</v>
+        <v>0.06792229454862958</v>
       </c>
       <c r="J14">
-        <v>0.07225337857191581</v>
+        <v>0.06792229454862958</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.04547765709317</v>
+        <v>36.01682133333333</v>
       </c>
       <c r="N14">
-        <v>1.04547765709317</v>
+        <v>108.050464</v>
       </c>
       <c r="O14">
-        <v>0.03034321473097013</v>
+        <v>0.888210824651586</v>
       </c>
       <c r="P14">
-        <v>0.03034321473097013</v>
+        <v>0.8882108246515859</v>
       </c>
       <c r="Q14">
-        <v>1.677921022144549</v>
+        <v>58.30174930904889</v>
       </c>
       <c r="R14">
-        <v>1.677921022144549</v>
+        <v>524.71574378144</v>
       </c>
       <c r="S14">
-        <v>0.002192399781045718</v>
+        <v>0.0603293172532662</v>
       </c>
       <c r="T14">
-        <v>0.002192399781045718</v>
+        <v>0.06032931725326619</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.60493245432888</v>
+        <v>1.618736666666667</v>
       </c>
       <c r="H15">
-        <v>1.60493245432888</v>
+        <v>4.85621</v>
       </c>
       <c r="I15">
-        <v>0.07225337857191581</v>
+        <v>0.06792229454862958</v>
       </c>
       <c r="J15">
-        <v>0.07225337857191581</v>
+        <v>0.06792229454862958</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.97320244330446</v>
+        <v>0.6555886666666667</v>
       </c>
       <c r="N15">
-        <v>0.97320244330446</v>
+        <v>1.966766</v>
       </c>
       <c r="O15">
-        <v>0.02824554930805219</v>
+        <v>0.01616747199490695</v>
       </c>
       <c r="P15">
-        <v>0.02824554930805219</v>
+        <v>0.01616747199490695</v>
       </c>
       <c r="Q15">
-        <v>1.56192418589149</v>
+        <v>1.061225412984445</v>
       </c>
       <c r="R15">
-        <v>1.56192418589149</v>
+        <v>9.551028716860001</v>
       </c>
       <c r="S15">
-        <v>0.00204083636712641</v>
+        <v>0.001098131794944789</v>
       </c>
       <c r="T15">
-        <v>0.00204083636712641</v>
+        <v>0.001098131794944789</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.60493245432888</v>
+        <v>1.618736666666667</v>
       </c>
       <c r="H16">
-        <v>1.60493245432888</v>
+        <v>4.85621</v>
       </c>
       <c r="I16">
-        <v>0.07225337857191581</v>
+        <v>0.06792229454862958</v>
       </c>
       <c r="J16">
-        <v>0.07225337857191581</v>
+        <v>0.06792229454862958</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.877625490142341</v>
+        <v>0.7454163333333333</v>
       </c>
       <c r="N16">
-        <v>0.877625490142341</v>
+        <v>2.236249</v>
       </c>
       <c r="O16">
-        <v>0.02547159044489152</v>
+        <v>0.01838271206698645</v>
       </c>
       <c r="P16">
-        <v>0.02547159044489152</v>
+        <v>0.01838271206698644</v>
       </c>
       <c r="Q16">
-        <v>1.408529631875734</v>
+        <v>1.206632750698889</v>
       </c>
       <c r="R16">
-        <v>1.408529631875734</v>
+        <v>10.85969475629</v>
       </c>
       <c r="S16">
-        <v>0.001840408467243541</v>
+        <v>0.001248595983616501</v>
       </c>
       <c r="T16">
-        <v>0.001840408467243541</v>
+        <v>0.0012485959836165</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.22729662862825</v>
+        <v>1.618736666666667</v>
       </c>
       <c r="H17">
-        <v>4.22729662862825</v>
+        <v>4.85621</v>
       </c>
       <c r="I17">
-        <v>0.1903111017664491</v>
+        <v>0.06792229454862958</v>
       </c>
       <c r="J17">
-        <v>0.1903111017664491</v>
+        <v>0.06792229454862958</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>30.9110121915341</v>
+        <v>1.125220666666667</v>
       </c>
       <c r="N17">
-        <v>30.9110121915341</v>
+        <v>3.375662</v>
       </c>
       <c r="O17">
-        <v>0.8971396701936101</v>
+        <v>0.02774906666541499</v>
       </c>
       <c r="P17">
-        <v>0.8971396701936101</v>
+        <v>0.02774906666541499</v>
       </c>
       <c r="Q17">
-        <v>130.6700176247588</v>
+        <v>1.821435951224444</v>
       </c>
       <c r="R17">
-        <v>130.6700176247588</v>
+        <v>16.39292356102</v>
       </c>
       <c r="S17">
-        <v>0.1707356390729347</v>
+        <v>0.001884780279497875</v>
       </c>
       <c r="T17">
-        <v>0.1707356390729347</v>
+        <v>0.001884780279497875</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.22729662862825</v>
+        <v>1.618736666666667</v>
       </c>
       <c r="H18">
-        <v>4.22729662862825</v>
+        <v>4.85621</v>
       </c>
       <c r="I18">
-        <v>0.1903111017664491</v>
+        <v>0.06792229454862958</v>
       </c>
       <c r="J18">
-        <v>0.1903111017664491</v>
+        <v>0.06792229454862958</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.647754508802609</v>
+        <v>0.9795256666666666</v>
       </c>
       <c r="N18">
-        <v>0.647754508802609</v>
+        <v>2.938577</v>
       </c>
       <c r="O18">
-        <v>0.01879997532247603</v>
+        <v>0.02415608229569642</v>
       </c>
       <c r="P18">
-        <v>0.01879997532247603</v>
+        <v>0.02415608229569642</v>
       </c>
       <c r="Q18">
-        <v>2.738250451240017</v>
+        <v>1.585594112574444</v>
       </c>
       <c r="R18">
-        <v>2.738250451240017</v>
+        <v>14.27034701317</v>
       </c>
       <c r="S18">
-        <v>0.003577844016802466</v>
+        <v>0.001640736536829228</v>
       </c>
       <c r="T18">
-        <v>0.003577844016802466</v>
+        <v>0.001640736536829228</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.22729662862825</v>
+        <v>1.618736666666667</v>
       </c>
       <c r="H19">
-        <v>4.22729662862825</v>
+        <v>4.85621</v>
       </c>
       <c r="I19">
-        <v>0.1903111017664491</v>
+        <v>0.06792229454862958</v>
       </c>
       <c r="J19">
-        <v>0.1903111017664491</v>
+        <v>0.06792229454862958</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.04547765709317</v>
+        <v>1.027283666666667</v>
       </c>
       <c r="N19">
-        <v>1.04547765709317</v>
+        <v>3.081851</v>
       </c>
       <c r="O19">
-        <v>0.03034321473097013</v>
+        <v>0.02533384232540931</v>
       </c>
       <c r="P19">
-        <v>0.03034321473097013</v>
+        <v>0.02533384232540931</v>
       </c>
       <c r="Q19">
-        <v>4.419544175136119</v>
+        <v>1.662901738301111</v>
       </c>
       <c r="R19">
-        <v>4.419544175136119</v>
+        <v>14.96611564471</v>
       </c>
       <c r="S19">
-        <v>0.005774650626586873</v>
+        <v>0.00172073270047499</v>
       </c>
       <c r="T19">
-        <v>0.005774650626586873</v>
+        <v>0.00172073270047499</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.22729662862825</v>
+        <v>4.366583666666667</v>
       </c>
       <c r="H20">
-        <v>4.22729662862825</v>
+        <v>13.099751</v>
       </c>
       <c r="I20">
-        <v>0.1903111017664491</v>
+        <v>0.1832221312372622</v>
       </c>
       <c r="J20">
-        <v>0.1903111017664491</v>
+        <v>0.1832221312372622</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.97320244330446</v>
+        <v>36.01682133333333</v>
       </c>
       <c r="N20">
-        <v>0.97320244330446</v>
+        <v>108.050464</v>
       </c>
       <c r="O20">
-        <v>0.02824554930805219</v>
+        <v>0.888210824651586</v>
       </c>
       <c r="P20">
-        <v>0.02824554930805219</v>
+        <v>0.8882108246515859</v>
       </c>
       <c r="Q20">
-        <v>4.114015407553719</v>
+        <v>157.2704637593849</v>
       </c>
       <c r="R20">
-        <v>4.114015407553719</v>
+        <v>1415.434173834464</v>
       </c>
       <c r="S20">
-        <v>0.005375441608813976</v>
+        <v>0.1627398802806698</v>
       </c>
       <c r="T20">
-        <v>0.005375441608813976</v>
+        <v>0.1627398802806697</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.22729662862825</v>
+        <v>4.366583666666667</v>
       </c>
       <c r="H21">
-        <v>4.22729662862825</v>
+        <v>13.099751</v>
       </c>
       <c r="I21">
-        <v>0.1903111017664491</v>
+        <v>0.1832221312372622</v>
       </c>
       <c r="J21">
-        <v>0.1903111017664491</v>
+        <v>0.1832221312372622</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.877625490142341</v>
+        <v>0.6555886666666667</v>
       </c>
       <c r="N21">
-        <v>0.877625490142341</v>
+        <v>1.966766</v>
       </c>
       <c r="O21">
-        <v>0.02547159044489152</v>
+        <v>0.01616747199490695</v>
       </c>
       <c r="P21">
-        <v>0.02547159044489152</v>
+        <v>0.01616747199490695</v>
       </c>
       <c r="Q21">
-        <v>3.709983275676934</v>
+        <v>2.862682763918445</v>
       </c>
       <c r="R21">
-        <v>3.709983275676934</v>
+        <v>25.76414487526601</v>
       </c>
       <c r="S21">
-        <v>0.004847526441311062</v>
+        <v>0.002962238675625602</v>
       </c>
       <c r="T21">
-        <v>0.004847526441311062</v>
+        <v>0.002962238675625602</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.888214397931201</v>
+        <v>4.366583666666667</v>
       </c>
       <c r="H22">
-        <v>0.888214397931201</v>
+        <v>13.099751</v>
       </c>
       <c r="I22">
-        <v>0.03998703557501767</v>
+        <v>0.1832221312372622</v>
       </c>
       <c r="J22">
-        <v>0.03998703557501767</v>
+        <v>0.1832221312372622</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>30.9110121915341</v>
+        <v>0.7454163333333333</v>
       </c>
       <c r="N22">
-        <v>30.9110121915341</v>
+        <v>2.236249</v>
       </c>
       <c r="O22">
-        <v>0.8971396701936101</v>
+        <v>0.01838271206698645</v>
       </c>
       <c r="P22">
-        <v>0.8971396701936101</v>
+        <v>0.01838271206698644</v>
       </c>
       <c r="Q22">
-        <v>27.45560608314748</v>
+        <v>3.254922785999889</v>
       </c>
       <c r="R22">
-        <v>27.45560608314748</v>
+        <v>29.294305073999</v>
       </c>
       <c r="S22">
-        <v>0.03587395590779151</v>
+        <v>0.003368119682834194</v>
       </c>
       <c r="T22">
-        <v>0.03587395590779151</v>
+        <v>0.003368119682834193</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.888214397931201</v>
+        <v>4.366583666666667</v>
       </c>
       <c r="H23">
-        <v>0.888214397931201</v>
+        <v>13.099751</v>
       </c>
       <c r="I23">
-        <v>0.03998703557501767</v>
+        <v>0.1832221312372622</v>
       </c>
       <c r="J23">
-        <v>0.03998703557501767</v>
+        <v>0.1832221312372622</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.647754508802609</v>
+        <v>1.125220666666667</v>
       </c>
       <c r="N23">
-        <v>0.647754508802609</v>
+        <v>3.375662</v>
       </c>
       <c r="O23">
-        <v>0.01879997532247603</v>
+        <v>0.02774906666541499</v>
       </c>
       <c r="P23">
-        <v>0.01879997532247603</v>
+        <v>0.02774906666541499</v>
       </c>
       <c r="Q23">
-        <v>0.5753448810433303</v>
+        <v>4.913370184462445</v>
       </c>
       <c r="R23">
-        <v>0.5753448810433303</v>
+        <v>44.220331660162</v>
       </c>
       <c r="S23">
-        <v>0.0007517552820293031</v>
+        <v>0.005084243134282202</v>
       </c>
       <c r="T23">
-        <v>0.0007517552820293031</v>
+        <v>0.005084243134282202</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.888214397931201</v>
+        <v>4.366583666666667</v>
       </c>
       <c r="H24">
-        <v>0.888214397931201</v>
+        <v>13.099751</v>
       </c>
       <c r="I24">
-        <v>0.03998703557501767</v>
+        <v>0.1832221312372622</v>
       </c>
       <c r="J24">
-        <v>0.03998703557501767</v>
+        <v>0.1832221312372622</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.04547765709317</v>
+        <v>0.9795256666666666</v>
       </c>
       <c r="N24">
-        <v>1.04547765709317</v>
+        <v>2.938577</v>
       </c>
       <c r="O24">
-        <v>0.03034321473097013</v>
+        <v>0.02415608229569642</v>
       </c>
       <c r="P24">
-        <v>0.03034321473097013</v>
+        <v>0.02415608229569642</v>
       </c>
       <c r="Q24">
-        <v>0.9286083077455327</v>
+        <v>4.277180777147445</v>
       </c>
       <c r="R24">
-        <v>0.9286083077455327</v>
+        <v>38.49462699432701</v>
       </c>
       <c r="S24">
-        <v>0.001213335206907703</v>
+        <v>0.004425928880560195</v>
       </c>
       <c r="T24">
-        <v>0.001213335206907703</v>
+        <v>0.004425928880560195</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.888214397931201</v>
+        <v>4.366583666666667</v>
       </c>
       <c r="H25">
-        <v>0.888214397931201</v>
+        <v>13.099751</v>
       </c>
       <c r="I25">
-        <v>0.03998703557501767</v>
+        <v>0.1832221312372622</v>
       </c>
       <c r="J25">
-        <v>0.03998703557501767</v>
+        <v>0.1832221312372622</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.97320244330446</v>
+        <v>1.027283666666667</v>
       </c>
       <c r="N25">
-        <v>0.97320244330446</v>
+        <v>3.081851</v>
       </c>
       <c r="O25">
-        <v>0.02824554930805219</v>
+        <v>0.02533384232540931</v>
       </c>
       <c r="P25">
-        <v>0.02824554930805219</v>
+        <v>0.02533384232540931</v>
       </c>
       <c r="Q25">
-        <v>0.8644124222448448</v>
+        <v>4.485720079900112</v>
       </c>
       <c r="R25">
-        <v>0.8644124222448448</v>
+        <v>40.37148071910101</v>
       </c>
       <c r="S25">
-        <v>0.001129455785016999</v>
+        <v>0.004641720583290252</v>
       </c>
       <c r="T25">
-        <v>0.001129455785016999</v>
+        <v>0.004641720583290252</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.888214397931201</v>
+        <v>0.8970403333333333</v>
       </c>
       <c r="H26">
-        <v>0.888214397931201</v>
+        <v>2.691121</v>
       </c>
       <c r="I26">
-        <v>0.03998703557501767</v>
+        <v>0.03763987002786177</v>
       </c>
       <c r="J26">
-        <v>0.03998703557501767</v>
+        <v>0.03763987002786177</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.877625490142341</v>
+        <v>36.01682133333333</v>
       </c>
       <c r="N26">
-        <v>0.877625490142341</v>
+        <v>108.050464</v>
       </c>
       <c r="O26">
-        <v>0.02547159044489152</v>
+        <v>0.888210824651586</v>
       </c>
       <c r="P26">
-        <v>0.02547159044489152</v>
+        <v>0.8882108246515859</v>
       </c>
       <c r="Q26">
-        <v>0.7795195963358547</v>
+        <v>32.30854141446044</v>
       </c>
       <c r="R26">
-        <v>0.7795195963358547</v>
+        <v>290.776872730144</v>
       </c>
       <c r="S26">
-        <v>0.001018533393272158</v>
+        <v>0.03343213999722561</v>
       </c>
       <c r="T26">
-        <v>0.001018533393272158</v>
+        <v>0.03343213999722561</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,60 +2084,60 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.37225650382002</v>
+        <v>0.8970403333333333</v>
       </c>
       <c r="H27">
-        <v>1.37225650382002</v>
+        <v>2.691121</v>
       </c>
       <c r="I27">
-        <v>0.06177840593904761</v>
+        <v>0.03763987002786177</v>
       </c>
       <c r="J27">
-        <v>0.06177840593904761</v>
+        <v>0.03763987002786177</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>30.9110121915341</v>
+        <v>0.6555886666666667</v>
       </c>
       <c r="N27">
-        <v>30.9110121915341</v>
+        <v>1.966766</v>
       </c>
       <c r="O27">
-        <v>0.8971396701936101</v>
+        <v>0.01616747199490695</v>
       </c>
       <c r="P27">
-        <v>0.8971396701936101</v>
+        <v>0.01616747199490695</v>
       </c>
       <c r="Q27">
-        <v>42.4178375194926</v>
+        <v>0.5880894760762223</v>
       </c>
       <c r="R27">
-        <v>42.4178375194926</v>
+        <v>5.292805284686001</v>
       </c>
       <c r="S27">
-        <v>0.05542385872924414</v>
+        <v>0.0006085415445673925</v>
       </c>
       <c r="T27">
-        <v>0.05542385872924414</v>
+        <v>0.0006085415445673925</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,60 +2146,60 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.37225650382002</v>
+        <v>0.8970403333333333</v>
       </c>
       <c r="H28">
-        <v>1.37225650382002</v>
+        <v>2.691121</v>
       </c>
       <c r="I28">
-        <v>0.06177840593904761</v>
+        <v>0.03763987002786177</v>
       </c>
       <c r="J28">
-        <v>0.06177840593904761</v>
+        <v>0.03763987002786177</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.647754508802609</v>
+        <v>0.7454163333333333</v>
       </c>
       <c r="N28">
-        <v>0.647754508802609</v>
+        <v>2.236249</v>
       </c>
       <c r="O28">
-        <v>0.01879997532247603</v>
+        <v>0.01838271206698645</v>
       </c>
       <c r="P28">
-        <v>0.01879997532247603</v>
+        <v>0.01838271206698644</v>
       </c>
       <c r="Q28">
-        <v>0.8888853375831226</v>
+        <v>0.6686685161254444</v>
       </c>
       <c r="R28">
-        <v>0.8888853375831226</v>
+        <v>6.018016645128999</v>
       </c>
       <c r="S28">
-        <v>0.001161432507116001</v>
+        <v>0.000691922892960976</v>
       </c>
       <c r="T28">
-        <v>0.001161432507116001</v>
+        <v>0.0006919228929609759</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2211,57 +2211,57 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.37225650382002</v>
+        <v>0.8970403333333333</v>
       </c>
       <c r="H29">
-        <v>1.37225650382002</v>
+        <v>2.691121</v>
       </c>
       <c r="I29">
-        <v>0.06177840593904761</v>
+        <v>0.03763987002786177</v>
       </c>
       <c r="J29">
-        <v>0.06177840593904761</v>
+        <v>0.03763987002786177</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.04547765709317</v>
+        <v>1.125220666666667</v>
       </c>
       <c r="N29">
-        <v>1.04547765709317</v>
+        <v>3.375662</v>
       </c>
       <c r="O29">
-        <v>0.03034321473097013</v>
+        <v>0.02774906666541499</v>
       </c>
       <c r="P29">
-        <v>0.03034321473097013</v>
+        <v>0.02774906666541499</v>
       </c>
       <c r="Q29">
-        <v>1.434663514544619</v>
+        <v>1.009368321900222</v>
       </c>
       <c r="R29">
-        <v>1.434663514544619</v>
+        <v>9.084314897102001</v>
       </c>
       <c r="S29">
-        <v>0.001874555437145562</v>
+        <v>0.001044471262680692</v>
       </c>
       <c r="T29">
-        <v>0.001874555437145562</v>
+        <v>0.001044471262680692</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,57 +2273,57 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.37225650382002</v>
+        <v>0.8970403333333333</v>
       </c>
       <c r="H30">
-        <v>1.37225650382002</v>
+        <v>2.691121</v>
       </c>
       <c r="I30">
-        <v>0.06177840593904761</v>
+        <v>0.03763987002786177</v>
       </c>
       <c r="J30">
-        <v>0.06177840593904761</v>
+        <v>0.03763987002786177</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.97320244330446</v>
+        <v>0.9795256666666666</v>
       </c>
       <c r="N30">
-        <v>0.97320244330446</v>
+        <v>2.938577</v>
       </c>
       <c r="O30">
-        <v>0.02824554930805219</v>
+        <v>0.02415608229569642</v>
       </c>
       <c r="P30">
-        <v>0.02824554930805219</v>
+        <v>0.02415608229569642</v>
       </c>
       <c r="Q30">
-        <v>1.33548338235808</v>
+        <v>0.8786740305352222</v>
       </c>
       <c r="R30">
-        <v>1.33548338235808</v>
+        <v>7.908066274816999</v>
       </c>
       <c r="S30">
-        <v>0.001744965011124234</v>
+        <v>0.000909231797992346</v>
       </c>
       <c r="T30">
-        <v>0.001744965011124234</v>
+        <v>0.000909231797992346</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,52 +2335,424 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.37225650382002</v>
+        <v>0.8970403333333333</v>
       </c>
       <c r="H31">
-        <v>1.37225650382002</v>
+        <v>2.691121</v>
       </c>
       <c r="I31">
-        <v>0.06177840593904761</v>
+        <v>0.03763987002786177</v>
       </c>
       <c r="J31">
-        <v>0.06177840593904761</v>
+        <v>0.03763987002786177</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.877625490142341</v>
+        <v>1.027283666666667</v>
       </c>
       <c r="N31">
-        <v>0.877625490142341</v>
+        <v>3.081851</v>
       </c>
       <c r="O31">
-        <v>0.02547159044489152</v>
+        <v>0.02533384232540931</v>
       </c>
       <c r="P31">
-        <v>0.02547159044489152</v>
+        <v>0.02533384232540931</v>
       </c>
       <c r="Q31">
-        <v>1.20432728676606</v>
+        <v>0.9215148827745556</v>
       </c>
       <c r="R31">
-        <v>1.20432728676606</v>
+        <v>8.293633944971001</v>
       </c>
       <c r="S31">
-        <v>0.001573594254417675</v>
+        <v>0.0009535625324347497</v>
       </c>
       <c r="T31">
-        <v>0.001573594254417675</v>
+        <v>0.0009535625324347497</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1.396580666666667</v>
+      </c>
+      <c r="H32">
+        <v>4.189742</v>
+      </c>
+      <c r="I32">
+        <v>0.05860061451353307</v>
+      </c>
+      <c r="J32">
+        <v>0.05860061451353307</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>36.01682133333333</v>
+      </c>
+      <c r="N32">
+        <v>108.050464</v>
+      </c>
+      <c r="O32">
+        <v>0.888210824651586</v>
+      </c>
+      <c r="P32">
+        <v>0.8882108246515859</v>
+      </c>
+      <c r="Q32">
+        <v>50.30039634892089</v>
+      </c>
+      <c r="R32">
+        <v>452.7035671402879</v>
+      </c>
+      <c r="S32">
+        <v>0.0520497001421549</v>
+      </c>
+      <c r="T32">
+        <v>0.0520497001421549</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1.396580666666667</v>
+      </c>
+      <c r="H33">
+        <v>4.189742</v>
+      </c>
+      <c r="I33">
+        <v>0.05860061451353307</v>
+      </c>
+      <c r="J33">
+        <v>0.05860061451353307</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.6555886666666667</v>
+      </c>
+      <c r="N33">
+        <v>1.966766</v>
+      </c>
+      <c r="O33">
+        <v>0.01616747199490695</v>
+      </c>
+      <c r="P33">
+        <v>0.01616747199490695</v>
+      </c>
+      <c r="Q33">
+        <v>0.9155824571524446</v>
+      </c>
+      <c r="R33">
+        <v>8.240242114372</v>
+      </c>
+      <c r="S33">
+        <v>0.0009474237940318835</v>
+      </c>
+      <c r="T33">
+        <v>0.0009474237940318835</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1.396580666666667</v>
+      </c>
+      <c r="H34">
+        <v>4.189742</v>
+      </c>
+      <c r="I34">
+        <v>0.05860061451353307</v>
+      </c>
+      <c r="J34">
+        <v>0.05860061451353307</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.7454163333333333</v>
+      </c>
+      <c r="N34">
+        <v>2.236249</v>
+      </c>
+      <c r="O34">
+        <v>0.01838271206698645</v>
+      </c>
+      <c r="P34">
+        <v>0.01838271206698644</v>
+      </c>
+      <c r="Q34">
+        <v>1.041034039750889</v>
+      </c>
+      <c r="R34">
+        <v>9.369306357757999</v>
+      </c>
+      <c r="S34">
+        <v>0.001077238223550745</v>
+      </c>
+      <c r="T34">
+        <v>0.001077238223550745</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1.396580666666667</v>
+      </c>
+      <c r="H35">
+        <v>4.189742</v>
+      </c>
+      <c r="I35">
+        <v>0.05860061451353307</v>
+      </c>
+      <c r="J35">
+        <v>0.05860061451353307</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1.125220666666667</v>
+      </c>
+      <c r="N35">
+        <v>3.375662</v>
+      </c>
+      <c r="O35">
+        <v>0.02774906666541499</v>
+      </c>
+      <c r="P35">
+        <v>0.02774906666541499</v>
+      </c>
+      <c r="Q35">
+        <v>1.571461428800444</v>
+      </c>
+      <c r="R35">
+        <v>14.143152859204</v>
+      </c>
+      <c r="S35">
+        <v>0.001626112358770314</v>
+      </c>
+      <c r="T35">
+        <v>0.001626112358770314</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1.396580666666667</v>
+      </c>
+      <c r="H36">
+        <v>4.189742</v>
+      </c>
+      <c r="I36">
+        <v>0.05860061451353307</v>
+      </c>
+      <c r="J36">
+        <v>0.05860061451353307</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.9795256666666666</v>
+      </c>
+      <c r="N36">
+        <v>2.938577</v>
+      </c>
+      <c r="O36">
+        <v>0.02415608229569642</v>
+      </c>
+      <c r="P36">
+        <v>0.02415608229569642</v>
+      </c>
+      <c r="Q36">
+        <v>1.367986608570444</v>
+      </c>
+      <c r="R36">
+        <v>12.311879477134</v>
+      </c>
+      <c r="S36">
+        <v>0.001415561266767287</v>
+      </c>
+      <c r="T36">
+        <v>0.001415561266767287</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1.396580666666667</v>
+      </c>
+      <c r="H37">
+        <v>4.189742</v>
+      </c>
+      <c r="I37">
+        <v>0.05860061451353307</v>
+      </c>
+      <c r="J37">
+        <v>0.05860061451353307</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.027283666666667</v>
+      </c>
+      <c r="N37">
+        <v>3.081851</v>
+      </c>
+      <c r="O37">
+        <v>0.02533384232540931</v>
+      </c>
+      <c r="P37">
+        <v>0.02533384232540931</v>
+      </c>
+      <c r="Q37">
+        <v>1.434684508049111</v>
+      </c>
+      <c r="R37">
+        <v>12.912160572442</v>
+      </c>
+      <c r="S37">
+        <v>0.001484578728257939</v>
+      </c>
+      <c r="T37">
+        <v>0.001484578728257939</v>
       </c>
     </row>
   </sheetData>
